--- a/pred_ohlcv/54_21/2019-10-16 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 LAMB ohlcv.xlsx
@@ -3044,7 +3044,7 @@
         <v>533874.2169999999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>533874.2169999999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>496621.8817</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>573883.6385999999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>573883.6385999999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>562919.6508999999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>562919.6508999999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>577011.5907999999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>504772.5377999999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>504782.5377999999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>503925.5533999999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>480160.3967999999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>486365.4983999999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>365062.8028999999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>365072.8028999999</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>361432.3607999999</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>355987.2354999999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>355811.3046999999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>315243.1895999999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>311767.3598999999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-254443.7484</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-916704.5934999997</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-859335.9659999998</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-862356.6190999998</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-862356.6190999998</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-785638.3333999998</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-52949.81146735094</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-63391.91166735094</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-91254.44046735094</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-91244.44046735094</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-91244.44046735094</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-93503.78166735094</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-135763.5477673509</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-83774.12316735093</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>4993.528632649075</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-60657.60136735093</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>970.1900326490722</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3970.190032649072</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3947.273432649072</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>42108.25883264907</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>488429.4056999614</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>488429.4056999614</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>488429.4056999614</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>491277.0369475805</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>588524.3654856419</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>588524.3654856419</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>646585.6287856419</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>645477.5459856419</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>641339.6798856419</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>590634.395585642</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-16 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 LAMB ohlcv.xlsx
@@ -3044,7 +3044,7 @@
         <v>533874.2169999999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>533874.2169999999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>496621.8817</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>573883.6385999999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>573883.6385999999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>562919.6508999999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>562919.6508999999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>566919.6508999999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>578329.6508999999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>577011.5907999999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>504772.5377999999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>504782.5377999999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>503925.5533999999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>487196.5353999999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>480160.3967999999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>486365.4983999999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>365062.8028999999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>365072.8028999999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>358932.3607999999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>355987.2354999999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>357811.3046999999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>355811.3046999999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>315243.1895999999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-916704.5934999997</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-875704.5934999997</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-863477.7571999998</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-785638.3333999998</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-785602.1042999998</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-786581.7845999998</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-786581.7845999998</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-807979.7158999998</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-542128.4949999999</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-517029.8899999998</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-63749.81146735094</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-52949.81146735094</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-63391.91166735094</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-91254.44046735094</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-91244.44046735094</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-91244.44046735094</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-93503.78166735094</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-135763.5477673509</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-83774.12316735093</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>4993.528632649075</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-6051.962967350924</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-60657.60136735093</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>1020.190032649072</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>970.1900326490722</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3970.190032649072</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3947.273432649072</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>42108.25883264907</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>352953.5607999614</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>352953.5607999614</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>351563.3118999614</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>351809.0775999614</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>351809.0775999614</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>350809.0775999614</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>446727.1812999614</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>429824.4880999614</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>429824.4880999614</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>387095.0346999614</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>387095.0346999614</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>542552.2806999615</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>534126.9211999614</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>411221.5811999615</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>488429.4056999614</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>488429.4056999614</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>588524.3654856419</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>646585.6287856419</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>645477.5459856419</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>637400.2144856419</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>641339.6798856419</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>590634.395585642</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
